--- a/Template/匯入資料範本(google duc).xlsx
+++ b/Template/匯入資料範本(google duc).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\桌面\人才資料庫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="6F0B64C3DCA2DCE5F04D6733CA08D379B92875ED" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{FEAC5867-F930-4B14-A342-9F2DE655D765}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="6F0B64C3DCA2DCE5F04D6733CA08D379B92875ED" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{F9EB9C20-E31A-4BF8-B546-F149728F45B2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6400" xr2:uid="{6612E09C-56E6-4336-A3AC-0143C291669D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>姓名</t>
   </si>
@@ -128,6 +128,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>人才儲存</t>
+  </si>
+  <si>
     <t>104面談邀約</t>
   </si>
   <si>
@@ -148,9 +151,6 @@
   </si>
   <si>
     <t>電聯未接</t>
-  </si>
-  <si>
-    <t>人才儲存</t>
   </si>
   <si>
     <t>Eva:請邀竹科C#</t>
@@ -780,7 +780,7 @@
   <dimension ref="A1:AT18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{9CF9D510-A92C-56D5-98CC-752769239849}">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="17.100000000000001"/>
@@ -931,16 +931,18 @@
       <c r="D2" s="18">
         <v>42753</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="F2" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -973,14 +975,14 @@
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -1013,14 +1015,14 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
@@ -1046,7 +1048,7 @@
     </row>
     <row r="5" spans="1:46" s="14" customFormat="1" ht="16.5">
       <c r="A5" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="17">
@@ -1056,10 +1058,10 @@
         <v>42845</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
@@ -1098,7 +1100,7 @@
         <v>42845</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -1138,7 +1140,7 @@
         <v>42849</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -1178,7 +1180,7 @@
         <v>42860</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -1218,7 +1220,7 @@
         <v>42930</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -1258,7 +1260,7 @@
         <v>42990</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -1300,7 +1302,7 @@
         <v>42990</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -1340,7 +1342,7 @@
         <v>42990</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>

--- a/Template/匯入資料範本(google duc).xlsx
+++ b/Template/匯入資料範本(google duc).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19017"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\桌面\人才資料庫\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Talent\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="6F0B64C3DCA2DCE5F04D6733CA08D379B92875ED" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{F9EB9C20-E31A-4BF8-B546-F149728F45B2}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="6F0B64C3DCA2DCE5F04D6733CA08D379B92875ED" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{E0145A77-0DC1-4E78-A114-4E6F4D76FE95}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6400" xr2:uid="{6612E09C-56E6-4336-A3AC-0143C291669D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6405" xr2:uid="{6612E09C-56E6-4336-A3AC-0143C291669D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>姓名</t>
   </si>
@@ -183,6 +183,17 @@
 二、希望面談時可以了解更多工作內容
 三、上一份工作在封裝測試廠工作，好像蠻操的
 四、Winform Webform皆有使用過。)，邀約5/16面談</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1233547566780
+ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567890123
+1234567890124
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -192,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -380,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,6 +473,37 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +523,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -779,11 +821,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F3396C-C285-4A66-989E-CE73CA87B3B0}">
   <dimension ref="A1:AT18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{9CF9D510-A92C-56D5-98CC-752769239849}">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="17.100000000000001"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
@@ -814,7 +856,7 @@
     <col min="28" max="29" width="6.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="14" customFormat="1" ht="28.5">
+    <row r="1" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,13 +962,13 @@
       <c r="AS1" s="13"/>
       <c r="AT1" s="13"/>
     </row>
-    <row r="2" spans="1:46" s="14" customFormat="1" ht="16.5">
+    <row r="2" spans="1:46" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="16"/>
-      <c r="C2" s="17">
-        <v>1234567890123</v>
+      <c r="C2" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="D2" s="18">
         <v>42753</v>
@@ -966,10 +1008,10 @@
       <c r="AC2" s="22"/>
       <c r="AD2" s="12"/>
     </row>
-    <row r="3" spans="1:46" s="14" customFormat="1" ht="15.75">
+    <row r="3" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="18">
         <v>42836</v>
       </c>
@@ -1006,7 +1048,7 @@
       <c r="AC3" s="22"/>
       <c r="AD3" s="12"/>
     </row>
-    <row r="4" spans="1:46" s="14" customFormat="1" ht="15.75">
+    <row r="4" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
@@ -1046,13 +1088,13 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="12"/>
     </row>
-    <row r="5" spans="1:46" s="14" customFormat="1" ht="16.5">
+    <row r="5" spans="1:46" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="17">
-        <v>1233547566780</v>
+      <c r="C5" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="D5" s="18">
         <v>42845</v>
@@ -1092,7 +1134,7 @@
       <c r="AC5" s="22"/>
       <c r="AD5" s="12"/>
     </row>
-    <row r="6" spans="1:46" s="14" customFormat="1" ht="15.75">
+    <row r="6" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
@@ -1132,7 +1174,7 @@
       <c r="AC6" s="22"/>
       <c r="AD6" s="12"/>
     </row>
-    <row r="7" spans="1:46" s="14" customFormat="1" ht="15.75">
+    <row r="7" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
@@ -1172,7 +1214,7 @@
       <c r="AC7" s="22"/>
       <c r="AD7" s="12"/>
     </row>
-    <row r="8" spans="1:46" s="14" customFormat="1" ht="15.75">
+    <row r="8" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
@@ -1212,7 +1254,7 @@
       <c r="AC8" s="22"/>
       <c r="AD8" s="12"/>
     </row>
-    <row r="9" spans="1:46" s="14" customFormat="1" ht="15.75">
+    <row r="9" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
@@ -1252,7 +1294,7 @@
       <c r="AC9" s="21"/>
       <c r="AD9" s="12"/>
     </row>
-    <row r="10" spans="1:46" s="14" customFormat="1" ht="15.75">
+    <row r="10" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
@@ -1294,7 +1336,7 @@
       <c r="AC10" s="21"/>
       <c r="AD10" s="12"/>
     </row>
-    <row r="11" spans="1:46" s="14" customFormat="1" ht="15.75">
+    <row r="11" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
@@ -1334,7 +1376,7 @@
       <c r="AC11" s="21"/>
       <c r="AD11" s="12"/>
     </row>
-    <row r="12" spans="1:46" s="14" customFormat="1" ht="15.75">
+    <row r="12" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -1374,7 +1416,7 @@
       <c r="AC12" s="21"/>
       <c r="AD12" s="12"/>
     </row>
-    <row r="13" spans="1:46" s="14" customFormat="1" ht="15.75">
+    <row r="13" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -1414,7 +1456,7 @@
       <c r="AC13" s="21"/>
       <c r="AD13" s="12"/>
     </row>
-    <row r="14" spans="1:46" s="14" customFormat="1" ht="63.75">
+    <row r="14" spans="1:46" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
@@ -1452,7 +1494,7 @@
       <c r="AC14" s="21"/>
       <c r="AD14" s="12"/>
     </row>
-    <row r="15" spans="1:46" s="14" customFormat="1" ht="25.5">
+    <row r="15" spans="1:46" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>42</v>
       </c>
@@ -1500,7 +1542,7 @@
       <c r="AC15" s="22"/>
       <c r="AD15" s="12"/>
     </row>
-    <row r="16" spans="1:46" s="14" customFormat="1" ht="63.75">
+    <row r="16" spans="1:46" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -1542,7 +1584,7 @@
       <c r="AC16" s="22"/>
       <c r="AD16" s="12"/>
     </row>
-    <row r="17" spans="1:30" s="14" customFormat="1" ht="114.75">
+    <row r="17" spans="1:30" s="14" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -1584,14 +1626,45 @@
       <c r="AC17" s="22"/>
       <c r="AD17" s="12"/>
     </row>
-    <row r="18" spans="1:30" ht="16.5"/>
+    <row r="18" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="36"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E1" xr:uid="{AEE906FC-49E0-4DDC-BF1A-519D1C66A689}">
       <formula1>NOT(ISERROR(SEARCH(("聯絡狀況"),(E1))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E16:E17 E2:E14" xr:uid="{CF5E383B-D3F0-4074-954B-AC8FA280456F}">
+    <dataValidation type="list" allowBlank="1" sqref="E16:E18 E2:E14" xr:uid="{CF5E383B-D3F0-4074-954B-AC8FA280456F}">
       <formula1>"人才儲存,1111邀約,104邀約,mail邀約,感謝函,電話聯繫,電聯未接,技術訪談,暫不考慮,信件聯繫,婉拒邀約,同意邀約,詢問問題,主動應徵,取消面談,面談未到,關閉履歷"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1600,5 +1673,6 @@
     <hyperlink ref="N1" r:id="rId2" display="VB.net" xr:uid="{A48F769E-055F-4EAB-80E0-A0161CA09066}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Template/匯入資料範本(google duc).xlsx
+++ b/Template/匯入資料範本(google duc).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19024"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Talent\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="6F0B64C3DCA2DCE5F04D6733CA08D379B92875ED" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{E0145A77-0DC1-4E78-A114-4E6F4D76FE95}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="6F0B64C3DCA2DCE5F04D6733CA08D379B92875ED" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{DF4416C4-1618-4997-AAC8-B59ED4339710}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6405" xr2:uid="{6612E09C-56E6-4336-A3AC-0143C291669D}"/>
   </bookViews>
@@ -128,6 +128,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">1234567890123
+1234567890124
+</t>
+  </si>
+  <si>
     <t>人才儲存</t>
   </si>
   <si>
@@ -141,6 +146,11 @@
   </si>
   <si>
     <t>BBB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1233547566780
+ </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -183,17 +193,6 @@
 二、希望面談時可以了解更多工作內容
 三、上一份工作在封裝測試廠工作，好像蠻操的
 四、Winform Webform皆有使用過。)，邀約5/16面談</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1233547566780
- </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1234567890123
-1234567890124
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -203,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -391,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,34 +473,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -523,7 +494,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -819,13 +790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F3396C-C285-4A66-989E-CE73CA87B3B0}">
-  <dimension ref="A1:AT18"/>
+  <dimension ref="A1:AT17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{9CF9D510-A92C-56D5-98CC-752769239849}">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
@@ -856,7 +827,7 @@
     <col min="28" max="29" width="6.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="14" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,29 +933,29 @@
       <c r="AS1" s="13"/>
       <c r="AT1" s="13"/>
     </row>
-    <row r="2" spans="1:46" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="14" customFormat="1" ht="38.25">
       <c r="A2" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D2" s="18">
         <v>42753</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -1008,23 +979,23 @@
       <c r="AC2" s="22"/>
       <c r="AD2" s="12"/>
     </row>
-    <row r="3" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" s="14" customFormat="1">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
-      <c r="C3" s="38"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="18">
         <v>42836</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -1048,7 +1019,7 @@
       <c r="AC3" s="22"/>
       <c r="AD3" s="12"/>
     </row>
-    <row r="4" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" s="14" customFormat="1">
       <c r="A4" s="26"/>
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
@@ -1057,14 +1028,14 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
@@ -1088,22 +1059,22 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="12"/>
     </row>
-    <row r="5" spans="1:46" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" s="14" customFormat="1" ht="25.5">
       <c r="A5" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="17" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D5" s="18">
         <v>42845</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
@@ -1134,7 +1105,7 @@
       <c r="AC5" s="22"/>
       <c r="AD5" s="12"/>
     </row>
-    <row r="6" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" s="14" customFormat="1">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
@@ -1142,7 +1113,7 @@
         <v>42845</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -1174,7 +1145,7 @@
       <c r="AC6" s="22"/>
       <c r="AD6" s="12"/>
     </row>
-    <row r="7" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" s="14" customFormat="1">
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
@@ -1182,7 +1153,7 @@
         <v>42849</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -1214,7 +1185,7 @@
       <c r="AC7" s="22"/>
       <c r="AD7" s="12"/>
     </row>
-    <row r="8" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" s="14" customFormat="1">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
@@ -1222,7 +1193,7 @@
         <v>42860</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -1254,7 +1225,7 @@
       <c r="AC8" s="22"/>
       <c r="AD8" s="12"/>
     </row>
-    <row r="9" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" s="14" customFormat="1">
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
@@ -1262,7 +1233,7 @@
         <v>42930</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -1294,7 +1265,7 @@
       <c r="AC9" s="21"/>
       <c r="AD9" s="12"/>
     </row>
-    <row r="10" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" s="14" customFormat="1">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
@@ -1302,10 +1273,10 @@
         <v>42990</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="22"/>
@@ -1336,7 +1307,7 @@
       <c r="AC10" s="21"/>
       <c r="AD10" s="12"/>
     </row>
-    <row r="11" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" s="14" customFormat="1">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
@@ -1344,7 +1315,7 @@
         <v>42990</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -1376,7 +1347,7 @@
       <c r="AC11" s="21"/>
       <c r="AD11" s="12"/>
     </row>
-    <row r="12" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" s="14" customFormat="1">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -1384,7 +1355,7 @@
         <v>42990</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -1416,7 +1387,7 @@
       <c r="AC12" s="21"/>
       <c r="AD12" s="12"/>
     </row>
-    <row r="13" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" s="14" customFormat="1">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -1424,7 +1395,7 @@
         <v>42990</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
@@ -1456,7 +1427,7 @@
       <c r="AC13" s="21"/>
       <c r="AD13" s="12"/>
     </row>
-    <row r="14" spans="1:46" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" s="14" customFormat="1" ht="51">
       <c r="A14" s="26"/>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
@@ -1464,10 +1435,10 @@
         <v>42998</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="22"/>
@@ -1494,9 +1465,9 @@
       <c r="AC14" s="21"/>
       <c r="AD14" s="12"/>
     </row>
-    <row r="15" spans="1:46" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" s="14" customFormat="1" ht="25.5">
       <c r="A15" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="17">
@@ -1506,10 +1477,10 @@
         <v>36526</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="22"/>
@@ -1542,7 +1513,7 @@
       <c r="AC15" s="22"/>
       <c r="AD15" s="12"/>
     </row>
-    <row r="16" spans="1:46" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" s="14" customFormat="1" ht="51">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -1551,7 +1522,7 @@
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="22"/>
@@ -1584,7 +1555,7 @@
       <c r="AC16" s="22"/>
       <c r="AD16" s="12"/>
     </row>
-    <row r="17" spans="1:30" s="14" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" s="14" customFormat="1" ht="102">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -1593,7 +1564,7 @@
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="22"/>
@@ -1626,45 +1597,13 @@
       <c r="AC17" s="22"/>
       <c r="AD17" s="12"/>
     </row>
-    <row r="18" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="36"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E1" xr:uid="{AEE906FC-49E0-4DDC-BF1A-519D1C66A689}">
       <formula1>NOT(ISERROR(SEARCH(("聯絡狀況"),(E1))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E16:E18 E2:E14" xr:uid="{CF5E383B-D3F0-4074-954B-AC8FA280456F}">
+    <dataValidation type="list" allowBlank="1" sqref="E16:E17 E2:E14" xr:uid="{CF5E383B-D3F0-4074-954B-AC8FA280456F}">
       <formula1>"人才儲存,1111邀約,104邀約,mail邀約,感謝函,電話聯繫,電聯未接,技術訪談,暫不考慮,信件聯繫,婉拒邀約,同意邀約,詢問問題,主動應徵,取消面談,面談未到,關閉履歷"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Template/匯入資料範本(google duc).xlsx
+++ b/Template/匯入資料範本(google duc).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Talent\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="6F0B64C3DCA2DCE5F04D6733CA08D379B92875ED" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{DF4416C4-1618-4997-AAC8-B59ED4339710}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="6F0B64C3DCA2DCE5F04D6733CA08D379B92875ED" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{EE098A68-AF01-4F90-B97F-E20FEB32F767}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6405" xr2:uid="{6612E09C-56E6-4336-A3AC-0143C291669D}"/>
   </bookViews>
@@ -324,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -347,50 +347,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,16 +390,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -458,23 +412,24 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,44 +745,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F3396C-C285-4A66-989E-CE73CA87B3B0}">
-  <dimension ref="A1:AT17"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{9CF9D510-A92C-56D5-98CC-752769239849}">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="34.25" customWidth="1"/>
-    <col min="7" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="4.5" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="4.875" customWidth="1"/>
-    <col min="11" max="11" width="6.5" customWidth="1"/>
-    <col min="12" max="12" width="3.5" customWidth="1"/>
-    <col min="13" max="13" width="11.75" customWidth="1"/>
-    <col min="14" max="14" width="13.5" customWidth="1"/>
-    <col min="15" max="15" width="4.75" customWidth="1"/>
-    <col min="16" max="16" width="6.125" customWidth="1"/>
-    <col min="17" max="17" width="9.5" customWidth="1"/>
-    <col min="18" max="18" width="9.125" customWidth="1"/>
-    <col min="19" max="19" width="6.875" customWidth="1"/>
-    <col min="20" max="20" width="6.5" customWidth="1"/>
-    <col min="21" max="21" width="5" customWidth="1"/>
-    <col min="22" max="22" width="4.875" customWidth="1"/>
-    <col min="23" max="23" width="7.75" customWidth="1"/>
-    <col min="24" max="24" width="4.5" customWidth="1"/>
-    <col min="25" max="25" width="3.75" customWidth="1"/>
-    <col min="26" max="26" width="5.75" customWidth="1"/>
-    <col min="27" max="27" width="6.25" customWidth="1"/>
-    <col min="28" max="29" width="6.125" customWidth="1"/>
+    <col min="1" max="2" width="12.25" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="23" customWidth="1"/>
+    <col min="6" max="6" width="34.25" style="23" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="23" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="23" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="23" customWidth="1"/>
+    <col min="10" max="10" width="4.875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="23" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="23" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="23" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="23" customWidth="1"/>
+    <col min="15" max="15" width="4.75" style="23" customWidth="1"/>
+    <col min="16" max="16" width="6.125" style="23" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="23" customWidth="1"/>
+    <col min="18" max="18" width="9.125" style="23" customWidth="1"/>
+    <col min="19" max="19" width="6.875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="6.5" style="23" customWidth="1"/>
+    <col min="21" max="21" width="5" style="23" customWidth="1"/>
+    <col min="22" max="22" width="4.875" style="23" customWidth="1"/>
+    <col min="23" max="23" width="7.75" style="23" customWidth="1"/>
+    <col min="24" max="24" width="4.5" style="23" customWidth="1"/>
+    <col min="25" max="25" width="3.75" style="23" customWidth="1"/>
+    <col min="26" max="26" width="5.75" style="23" customWidth="1"/>
+    <col min="27" max="27" width="6.25" style="23" customWidth="1"/>
+    <col min="28" max="29" width="6.125" style="23" customWidth="1"/>
+    <col min="30" max="16384" width="14.5" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="14" customFormat="1">
+    <row r="1" spans="1:29" s="24" customFormat="1" ht="28.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,687 +871,654 @@
       <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-    </row>
-    <row r="2" spans="1:46" s="14" customFormat="1" ht="38.25">
-      <c r="A2" s="27" t="s">
+    </row>
+    <row r="2" spans="1:29" s="24" customFormat="1" ht="38.25">
+      <c r="A2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="15">
         <v>42753</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="12"/>
-    </row>
-    <row r="3" spans="1:46" s="14" customFormat="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="18">
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+    </row>
+    <row r="3" spans="1:29" s="24" customFormat="1" ht="15.75">
+      <c r="A3" s="26"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="15">
         <v>42836</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="21" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="12"/>
-    </row>
-    <row r="4" spans="1:46" s="14" customFormat="1">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+    </row>
+    <row r="4" spans="1:29" s="24" customFormat="1" ht="15.75">
       <c r="A4" s="26"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="18">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="15">
         <v>42843</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="12"/>
-    </row>
-    <row r="5" spans="1:46" s="14" customFormat="1" ht="25.5">
-      <c r="A5" s="27" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+    </row>
+    <row r="5" spans="1:29" s="24" customFormat="1" ht="25.5">
+      <c r="A5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <v>42845</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22" t="s">
+      <c r="M5" s="19"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="12"/>
-    </row>
-    <row r="6" spans="1:46" s="14" customFormat="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="18">
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+    </row>
+    <row r="6" spans="1:29" s="24" customFormat="1" ht="15.75">
+      <c r="A6" s="26"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="15">
         <v>42845</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22" t="s">
+      <c r="M6" s="19"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="12"/>
-    </row>
-    <row r="7" spans="1:46" s="14" customFormat="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="18">
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+    </row>
+    <row r="7" spans="1:29" s="24" customFormat="1" ht="15.75">
+      <c r="A7" s="26"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="15">
         <v>42849</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="12"/>
-    </row>
-    <row r="8" spans="1:46" s="14" customFormat="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="18">
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+    </row>
+    <row r="8" spans="1:29" s="24" customFormat="1" ht="15.75">
+      <c r="A8" s="26"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="15">
         <v>42860</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22" t="s">
+      <c r="M8" s="19"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="12"/>
-    </row>
-    <row r="9" spans="1:46" s="14" customFormat="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="18">
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+    </row>
+    <row r="9" spans="1:29" s="24" customFormat="1" ht="15.75">
+      <c r="A9" s="26"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="15">
         <v>42930</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22" t="s">
+      <c r="M9" s="19"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="12"/>
-    </row>
-    <row r="10" spans="1:46" s="14" customFormat="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="18">
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+    </row>
+    <row r="10" spans="1:29" s="24" customFormat="1" ht="15.75">
+      <c r="A10" s="26"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="15">
         <v>42990</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22" t="s">
+      <c r="M10" s="19"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="12"/>
-    </row>
-    <row r="11" spans="1:46" s="14" customFormat="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="18">
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+    </row>
+    <row r="11" spans="1:29" s="24" customFormat="1" ht="15.75">
+      <c r="A11" s="26"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="15">
         <v>42990</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22" t="s">
+      <c r="M11" s="19"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="12"/>
-    </row>
-    <row r="12" spans="1:46" s="14" customFormat="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="18">
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+    </row>
+    <row r="12" spans="1:29" s="24" customFormat="1" ht="15.75">
+      <c r="A12" s="26"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="15">
         <v>42990</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22" t="s">
+      <c r="M12" s="19"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="12"/>
-    </row>
-    <row r="13" spans="1:46" s="14" customFormat="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="18">
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+    </row>
+    <row r="13" spans="1:29" s="24" customFormat="1" ht="15.75">
+      <c r="A13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="15">
         <v>42990</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22" t="s">
+      <c r="M13" s="19"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="12"/>
-    </row>
-    <row r="14" spans="1:46" s="14" customFormat="1" ht="51">
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+    </row>
+    <row r="14" spans="1:29" s="24" customFormat="1" ht="63.75">
       <c r="A14" s="26"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="18">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="15">
         <v>42998</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="12"/>
-    </row>
-    <row r="15" spans="1:46" s="14" customFormat="1" ht="25.5">
-      <c r="A15" s="15" t="s">
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+    </row>
+    <row r="15" spans="1:29" s="24" customFormat="1" ht="25.5">
+      <c r="A15" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14">
         <v>123456739897</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>36526</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22" t="s">
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="12"/>
-    </row>
-    <row r="16" spans="1:46" s="14" customFormat="1" ht="51">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="18">
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+    </row>
+    <row r="16" spans="1:29" s="24" customFormat="1" ht="63.75">
+      <c r="A16" s="26"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="15">
         <v>42866</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22" t="s">
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="12"/>
-    </row>
-    <row r="17" spans="1:30" s="14" customFormat="1" ht="102">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="18">
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+    </row>
+    <row r="17" spans="1:29" s="24" customFormat="1" ht="114.75">
+      <c r="A17" s="26"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="15">
         <v>42867</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21" t="s">
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22" t="s">
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="12"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
